--- a/Data/EC/NIT-9005730081.xlsx
+++ b/Data/EC/NIT-9005730081.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5F35BD0-0D5E-4F51-A9AB-F1A869598118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20564124-F7F3-4E3F-8FD7-4AD387236054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DB27CDE3-8C1E-4311-BEDB-0FA106E24AB3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9A007764-914E-49FA-9675-83AC55146CE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,28 +71,28 @@
     <t>LUIS MIGUEL MEZA OJEDA</t>
   </si>
   <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
     <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -506,7 +506,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE790ED-C9C1-C87D-ED31-193808B13D8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42CD0FB2-AA3A-125A-0038-33EFD837027E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CB2F32-A941-4572-9461-14CC3B9C0134}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7AF409-F6FC-414B-BE80-1ABE6FDE8F4C}">
   <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1035,10 +1035,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1061,7 +1061,7 @@
         <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1084,7 +1084,7 @@
         <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1107,7 +1107,7 @@
         <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1130,7 +1130,7 @@
         <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1153,7 +1153,7 @@
         <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1176,7 +1176,7 @@
         <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1196,10 +1196,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="24">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="24">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>

--- a/Data/EC/NIT-9005730081.xlsx
+++ b/Data/EC/NIT-9005730081.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20564124-F7F3-4E3F-8FD7-4AD387236054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D54B33-35E1-4BEC-8AB0-FA5388C0DA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9A007764-914E-49FA-9675-83AC55146CE5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{66E5992B-2550-4FD6-B9F9-A257B0A779BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,28 +71,28 @@
     <t>LUIS MIGUEL MEZA OJEDA</t>
   </si>
   <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
     <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -191,22 +191,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -406,23 +406,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,10 +450,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -506,7 +506,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42CD0FB2-AA3A-125A-0038-33EFD837027E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8994C59C-BE58-A71D-60E2-AEC9B49D4FFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7AF409-F6FC-414B-BE80-1ABE6FDE8F4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDDF94E-1757-454C-B2E5-BC6B3191026E}">
   <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1035,10 +1035,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1061,7 +1061,7 @@
         <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1084,7 +1084,7 @@
         <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1107,7 +1107,7 @@
         <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1130,7 +1130,7 @@
         <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1153,7 +1153,7 @@
         <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1176,7 +1176,7 @@
         <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1196,10 +1196,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="24">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G23" s="24">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
